--- a/BOM/Teileliste.xlsx
+++ b/BOM/Teileliste.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="122">
   <si>
     <t>Part</t>
   </si>
@@ -367,6 +367,30 @@
   </si>
   <si>
     <t>Klinkenbuchse</t>
+  </si>
+  <si>
+    <t>16x2</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/entwicklerboards-display-16-x-2-zeichen-blau-debo-lcd-16x2-bl-p192143.html?&amp;trstct=pos_0</t>
+  </si>
+  <si>
+    <t>Option Display &amp; Buttons</t>
+  </si>
+  <si>
+    <t>Button</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/printtaster-tht-2-45-n-6-x-6-x-9-5-mm-rnd-210-00196-p226417.html?&amp;trstct=pos_3</t>
+  </si>
+  <si>
+    <t>Printtaster</t>
+  </si>
+  <si>
+    <t>Ohne LCD</t>
+  </si>
+  <si>
+    <t>Mit LCD</t>
   </si>
 </sst>
 </file>
@@ -706,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,13 +1057,75 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>120</v>
+      </c>
       <c r="D17" t="s">
         <v>111</v>
       </c>
       <c r="E17" s="2">
         <f>SUM(E2:E15)</f>
         <v>18.041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21" si="2">D21*C21</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22" si="3">D22*C22</f>
+        <v>0.5</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="2">
+        <f>SUM(E17:E22)</f>
+        <v>28.341000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1058,9 +1144,11 @@
     <hyperlink ref="F12" r:id="rId12"/>
     <hyperlink ref="F10" r:id="rId13"/>
     <hyperlink ref="F8" r:id="rId14"/>
+    <hyperlink ref="F21" r:id="rId15"/>
+    <hyperlink ref="F22" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId15"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId17"/>
 </worksheet>
 </file>
 

--- a/BOM/Teileliste.xlsx
+++ b/BOM/Teileliste.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
   <si>
     <t>Part</t>
   </si>
@@ -354,9 +354,6 @@
     <t>https://www.reichelt.de/einbaubuchse-aussen-6-3-mm-innen-2-1-mm-dc-bu-072759-p208065.html?&amp;trstct=pos_7</t>
   </si>
   <si>
-    <t>https://www.digitalo.de/products/366744/Klinken-Steckverbinder-2.5mm-Buchse-Einbau-horizontal-Polzahl-2-Mono-Schwarz-1St..html?ref=43&amp;gclid=EAIaIQobChMI_sf_vJ-k3QIVlc13Ch3brA1gEAkYEiABEgJFAPD_BwE</t>
-  </si>
-  <si>
     <t>https://www.amazon.de/AZDelivery-NodeMCU-ESP8266-ESP-12E-Development/dp/B06Y1LZLLY/ref=sr_1_6?s=computers&amp;ie=UTF8&amp;qid=1536349567&amp;sr=1-6&amp;keywords=esp8266</t>
   </si>
   <si>
@@ -391,6 +388,15 @@
   </si>
   <si>
     <t>Mit LCD</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/klinken-steckverbinder-25-mm-buchse-einbau-horizontal-polzahl-2-mono-schwarz-conrad-components-1-st-718780.html</t>
+  </si>
+  <si>
+    <t>1000uf</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/elko-radial-1-0-mf-6-3-v-rm-3-5-1000h-105-c-20-nhg-a-1-0m-6-3-p200391.html?&amp;trstct=pol_4</t>
   </si>
 </sst>
 </file>
@@ -730,10 +736,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,7 +913,7 @@
         <v>6.99</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -954,178 +960,199 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>122</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="E11" s="2">
         <f>D11*C11</f>
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" s="2">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="E12" s="2">
-        <f t="shared" ref="E12:E15" si="1">D12*C12</f>
-        <v>0.52</v>
+        <f>D12*C12</f>
+        <v>0.4</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:E16" si="1">D13*C13</f>
+        <v>0.52</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>93</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>106</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D14" s="2">
         <v>0.17</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>94</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>31</v>
       </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.99</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>112</v>
       </c>
-      <c r="C15">
+      <c r="B16" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16">
         <v>4</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D16" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E16" s="2">
         <f t="shared" si="1"/>
         <v>4.5199999999999996</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" t="s">
-        <v>111</v>
-      </c>
-      <c r="E17" s="2">
-        <f>SUM(E2:E15)</f>
-        <v>18.041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>116</v>
+      <c r="F16" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D18" t="s">
+        <v>110</v>
+      </c>
+      <c r="E18" s="2">
+        <f>SUM(E2:E16)</f>
+        <v>18.541</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E21" s="2">
-        <f t="shared" ref="E21" si="2">D21*C21</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F21" s="3" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22" si="2">D22*C22</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" ref="E23" si="3">D23*C23</f>
+        <v>0.75</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-      <c r="D22" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22" si="3">D22*C22</f>
-        <v>0.5</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>121</v>
-      </c>
-      <c r="D24" t="s">
-        <v>111</v>
-      </c>
-      <c r="E24" s="2">
-        <f>SUM(E17:E22)</f>
-        <v>28.341000000000001</v>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="2">
+        <f>SUM(E18:E23)</f>
+        <v>29.091000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1137,18 +1164,16 @@
     <hyperlink ref="F6" r:id="rId5"/>
     <hyperlink ref="F7" r:id="rId6"/>
     <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F11" r:id="rId8"/>
-    <hyperlink ref="F13" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
-    <hyperlink ref="F15" r:id="rId11"/>
-    <hyperlink ref="F12" r:id="rId12"/>
-    <hyperlink ref="F10" r:id="rId13"/>
-    <hyperlink ref="F8" r:id="rId14"/>
-    <hyperlink ref="F21" r:id="rId15"/>
-    <hyperlink ref="F22" r:id="rId16"/>
+    <hyperlink ref="F14" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F12" r:id="rId10"/>
+    <hyperlink ref="F10" r:id="rId11"/>
+    <hyperlink ref="F8" r:id="rId12"/>
+    <hyperlink ref="F22" r:id="rId13"/>
+    <hyperlink ref="F23" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId17"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/BOM/Teileliste.xlsx
+++ b/BOM/Teileliste.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="119">
   <si>
     <t>Part</t>
   </si>
@@ -324,12 +324,6 @@
     <t>https://www.reichelt.de/widerstand-kohleschicht-10-kohm-0207-250-mw-5-1-4w-10k-p1338.html?&amp;trstct=pos_2</t>
   </si>
   <si>
-    <t>https://www.reichelt.de/widerstand-kohleschicht-4-7-kohm-0207-250-mw-5-1-4w-4-7k-p1425.html?&amp;trstct=pos_2</t>
-  </si>
-  <si>
-    <t>https://www.reichelt.de/widerstand-kohleschicht-1-0-kohm-0207-250-mw-5-1-4w-1-0k-p1315.html?&amp;trstct=pos_8</t>
-  </si>
-  <si>
     <t>https://www.reichelt.de/widerstand-kohleschicht-560-ohm-0207-250-mw-5-1-4w-560-p1446.html?&amp;trstct=pos_4</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
     <t>https://www.reichelt.de/spannungsregler-5-v-to-220fp-l7805cp-stm-p216931.html?&amp;trstct=pos_1</t>
   </si>
   <si>
-    <t>2 mm Raster</t>
-  </si>
-  <si>
     <t>https://www.reichelt.de/36pol-stiftleiste-gerade-rm-2-54-sl-1x36g-2-54-p19504.html?&amp;trstct=pol_0</t>
   </si>
   <si>
@@ -372,9 +363,6 @@
     <t>https://www.reichelt.de/entwicklerboards-display-16-x-2-zeichen-blau-debo-lcd-16x2-bl-p192143.html?&amp;trstct=pos_0</t>
   </si>
   <si>
-    <t>Option Display &amp; Buttons</t>
-  </si>
-  <si>
     <t>Button</t>
   </si>
   <si>
@@ -384,12 +372,6 @@
     <t>Printtaster</t>
   </si>
   <si>
-    <t>Ohne LCD</t>
-  </si>
-  <si>
-    <t>Mit LCD</t>
-  </si>
-  <si>
     <t>https://www.conrad.de/de/klinken-steckverbinder-25-mm-buchse-einbau-horizontal-polzahl-2-mono-schwarz-conrad-components-1-st-718780.html</t>
   </si>
   <si>
@@ -397,6 +379,9 @@
   </si>
   <si>
     <t>https://www.reichelt.de/elko-radial-1-0-mf-6-3-v-rm-3-5-1000h-105-c-20-nhg-a-1-0m-6-3-p200391.html?&amp;trstct=pol_4</t>
+  </si>
+  <si>
+    <t>2,54 mm Raster</t>
   </si>
 </sst>
 </file>
@@ -736,10 +721,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -777,14 +762,14 @@
         <v>84</v>
       </c>
       <c r="C2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D2" s="2">
         <v>0.35</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E10" si="0">D2*C2</f>
-        <v>2.4499999999999997</v>
+        <f t="shared" ref="E2:E8" si="0">D2*C2</f>
+        <v>1.75</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>96</v>
@@ -798,14 +783,14 @@
         <v>61</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D3" s="2">
         <v>0.10299999999999999</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" si="0"/>
-        <v>0.309</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>98</v>
@@ -816,17 +801,17 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" s="2">
         <v>0.10299999999999999</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0.20599999999999999</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>99</v>
@@ -834,20 +819,20 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.10299999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>0.10299999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>100</v>
@@ -855,65 +840,65 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.10299999999999999</v>
+        <v>6.99</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>0.10299999999999999</v>
+        <v>6.99</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0.69</v>
+        <v>0.22</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0.69</v>
+        <v>0.22</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>6.99</v>
+        <v>0.2</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>6.99</v>
+        <v>0.2</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -921,101 +906,101 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="E9" s="2">
-        <f t="shared" si="0"/>
-        <v>0.22</v>
+        <f>D9*C9</f>
+        <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" s="2">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E10" s="2">
-        <f t="shared" si="0"/>
-        <v>0.2</v>
+        <f>D10*C10</f>
+        <v>0.4</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0.25</v>
+        <v>0.52</v>
       </c>
       <c r="E11" s="2">
-        <f>D11*C11</f>
-        <v>0.5</v>
+        <f t="shared" ref="E11:E14" si="1">D11*C11</f>
+        <v>0.52</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>118</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="2">
-        <v>0.4</v>
+        <v>0.17</v>
       </c>
       <c r="E12" s="2">
-        <f>D12*C12</f>
-        <v>0.4</v>
+        <f t="shared" si="1"/>
+        <v>0.34</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" s="2">
-        <v>0.52</v>
+        <v>0.99</v>
       </c>
       <c r="E13" s="2">
-        <f t="shared" ref="E13:E16" si="1">D13*C13</f>
-        <v>0.52</v>
+        <f t="shared" si="1"/>
+        <v>0.99</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>105</v>
@@ -1023,44 +1008,44 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2">
-        <v>0.17</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" si="1"/>
-        <v>0.34</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>94</v>
+        <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>0.99</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" si="1"/>
-        <v>0.99</v>
+        <f t="shared" ref="E15" si="2">D15*C15</f>
+        <v>9.8000000000000007</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,112 +1053,48 @@
         <v>112</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D16" s="2">
-        <v>1.1299999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" si="1"/>
-        <v>4.5199999999999996</v>
+        <f t="shared" ref="E16" si="3">D16*C16</f>
+        <v>0.75</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>119</v>
-      </c>
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E18" s="2">
         <f>SUM(E2:E16)</f>
-        <v>18.541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E22" s="2">
-        <f t="shared" ref="E22" si="2">D22*C22</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>116</v>
-      </c>
-      <c r="B23" t="s">
-        <v>118</v>
-      </c>
-      <c r="C23">
-        <v>3</v>
-      </c>
-      <c r="D23" s="2">
-        <v>0.25</v>
-      </c>
-      <c r="E23" s="2">
-        <f t="shared" ref="E23" si="3">D23*C23</f>
-        <v>0.75</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" t="s">
-        <v>110</v>
-      </c>
-      <c r="E25" s="2">
-        <f>SUM(E18:E23)</f>
-        <v>29.091000000000001</v>
+        <v>28.788</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
     <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F5" r:id="rId3"/>
-    <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F9" r:id="rId7"/>
-    <hyperlink ref="F14" r:id="rId8"/>
-    <hyperlink ref="F15" r:id="rId9"/>
-    <hyperlink ref="F12" r:id="rId10"/>
-    <hyperlink ref="F10" r:id="rId11"/>
-    <hyperlink ref="F8" r:id="rId12"/>
-    <hyperlink ref="F22" r:id="rId13"/>
-    <hyperlink ref="F23" r:id="rId14"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F7" r:id="rId5"/>
+    <hyperlink ref="F12" r:id="rId6"/>
+    <hyperlink ref="F13" r:id="rId7"/>
+    <hyperlink ref="F10" r:id="rId8"/>
+    <hyperlink ref="F8" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10"/>
+    <hyperlink ref="F15" r:id="rId11"/>
+    <hyperlink ref="F16" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId15"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/BOM/Teileliste.xlsx
+++ b/BOM/Teileliste.xlsx
@@ -345,9 +345,6 @@
     <t>https://www.reichelt.de/einbaubuchse-aussen-6-3-mm-innen-2-1-mm-dc-bu-072759-p208065.html?&amp;trstct=pos_7</t>
   </si>
   <si>
-    <t>https://www.amazon.de/AZDelivery-NodeMCU-ESP8266-ESP-12E-Development/dp/B06Y1LZLLY/ref=sr_1_6?s=computers&amp;ie=UTF8&amp;qid=1536349567&amp;sr=1-6&amp;keywords=esp8266</t>
-  </si>
-  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -382,6 +379,9 @@
   </si>
   <si>
     <t>2,54 mm Raster</t>
+  </si>
+  <si>
+    <t>https://www.amazon.de/gp/product/B018E741G4/ref=oh_aui_search_detailpage?ie=UTF8&amp;psc=1</t>
   </si>
 </sst>
 </file>
@@ -723,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -856,7 +856,7 @@
         <v>6.99</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,7 +906,7 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -919,7 +919,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -969,7 +969,7 @@
         <v>93</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1008,10 +1008,10 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1024,7 +1024,7 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1032,7 +1032,7 @@
         <v>41</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -1045,15 +1045,15 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -1066,12 +1066,12 @@
         <v>0.75</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="18" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E18" s="2">
         <f>SUM(E2:E16)</f>
@@ -1089,12 +1089,11 @@
     <hyperlink ref="F13" r:id="rId7"/>
     <hyperlink ref="F10" r:id="rId8"/>
     <hyperlink ref="F8" r:id="rId9"/>
-    <hyperlink ref="F6" r:id="rId10"/>
-    <hyperlink ref="F15" r:id="rId11"/>
-    <hyperlink ref="F16" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId10"/>
+    <hyperlink ref="F16" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId13"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId12"/>
 </worksheet>
 </file>
 

--- a/BOM/Teileliste.xlsx
+++ b/BOM/Teileliste.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
   <si>
     <t>Part</t>
   </si>
@@ -382,6 +382,9 @@
   </si>
   <si>
     <t>https://www.amazon.de/gp/product/B018E741G4/ref=oh_aui_search_detailpage?ie=UTF8&amp;psc=1</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/5-Kohleschichtwiderstaende/2/index.html?ACTION=2&amp;LA=2&amp;GROUP=B1A50&amp;GROUPID=8375&amp;START=0&amp;OFFSET=16&amp;SHOW=1;SID=95W6kNt6wQATQAADY98ko4653c6530c9dd2065b8ca2682af020a9</t>
   </si>
 </sst>
 </file>
@@ -721,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,14 +765,14 @@
         <v>84</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2">
         <v>0.35</v>
       </c>
       <c r="E2" s="2">
-        <f t="shared" ref="E2:E8" si="0">D2*C2</f>
-        <v>1.75</v>
+        <f t="shared" ref="E2:E9" si="0">D2*C2</f>
+        <v>1.4</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>96</v>
@@ -780,20 +783,20 @@
         <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>0.10299999999999999</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="0"/>
-        <v>0.51500000000000001</v>
+        <f>D3*C3</f>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -801,83 +804,83 @@
         <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="2">
         <v>0.10299999999999999</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="0"/>
-        <v>0.10299999999999999</v>
+        <v>0.51500000000000001</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" s="2">
-        <v>0.69</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="0"/>
-        <v>0.69</v>
+        <v>0.10299999999999999</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>6.99</v>
+        <v>0.69</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="0"/>
-        <v>6.99</v>
+        <v>0.69</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>118</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>89</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" s="2">
-        <v>0.22</v>
+        <v>7.55</v>
       </c>
       <c r="E7" s="2">
         <f t="shared" si="0"/>
-        <v>0.22</v>
+        <v>7.55</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -885,20 +888,20 @@
         <v>90</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" s="2">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="E8" s="2">
         <f t="shared" si="0"/>
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -906,191 +909,212 @@
         <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D9" s="2">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="E9" s="2">
-        <f>D9*C9</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.2</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>115</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D10" s="2">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="E10" s="2">
         <f>D10*C10</f>
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0.52</v>
+        <v>0.4</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" ref="E11:E14" si="1">D11*C11</f>
-        <v>0.52</v>
+        <f>D11*C11</f>
+        <v>0.4</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:E15" si="1">D12*C12</f>
+        <v>0.52</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>93</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>117</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D13" s="2">
         <v>0.17</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E13" s="2">
         <f t="shared" si="1"/>
         <v>0.34</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>94</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>31</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.99</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E14" s="2">
         <f t="shared" si="1"/>
         <v>0.99</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>108</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>107</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D15" s="2">
         <v>1.1299999999999999</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E15" s="2">
         <f t="shared" si="1"/>
         <v>4.5199999999999996</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" ref="E15" si="2">D15*C15</f>
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" ref="E16" si="2">D16*C16</f>
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>113</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>3</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D17" s="2">
         <v>0.25</v>
       </c>
-      <c r="E16" s="2">
-        <f t="shared" ref="E16" si="3">D16*C16</f>
+      <c r="E17" s="2">
+        <f t="shared" ref="E17" si="3">D17*C17</f>
         <v>0.75</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="2">
-        <f>SUM(E2:E16)</f>
-        <v>28.788</v>
+      <c r="E19" s="2">
+        <f>SUM(E2:E17)</f>
+        <v>29.101000000000003</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F7" r:id="rId5"/>
-    <hyperlink ref="F12" r:id="rId6"/>
-    <hyperlink ref="F13" r:id="rId7"/>
-    <hyperlink ref="F10" r:id="rId8"/>
-    <hyperlink ref="F8" r:id="rId9"/>
-    <hyperlink ref="F15" r:id="rId10"/>
-    <hyperlink ref="F16" r:id="rId11"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F6" r:id="rId4"/>
+    <hyperlink ref="F8" r:id="rId5"/>
+    <hyperlink ref="F13" r:id="rId6"/>
+    <hyperlink ref="F14" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="F9" r:id="rId9"/>
+    <hyperlink ref="F16" r:id="rId10"/>
+    <hyperlink ref="F17" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId12"/>

--- a/BOM/Teileliste.xlsx
+++ b/BOM/Teileliste.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="123">
   <si>
     <t>Part</t>
   </si>
@@ -385,6 +385,15 @@
   </si>
   <si>
     <t>https://www.reichelt.de/5-Kohleschichtwiderstaende/2/index.html?ACTION=2&amp;LA=2&amp;GROUP=B1A50&amp;GROUPID=8375&amp;START=0&amp;OFFSET=16&amp;SHOW=1;SID=95W6kNt6wQATQAADY98ko4653c6530c9dd2065b8ca2682af020a9</t>
+  </si>
+  <si>
+    <t>Verpolungsschutz</t>
+  </si>
+  <si>
+    <t>https://www.reichelt.de/gleichrichterdiode-50-v-1-a-do-41-1n-4001-p1723.html?&amp;trstct=pos_0</t>
+  </si>
+  <si>
+    <t>Diode 1N4001</t>
   </si>
 </sst>
 </file>
@@ -727,7 +736,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1086,11 +1095,32 @@
         <v>0.25</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ref="E17" si="3">D17*C17</f>
+        <f t="shared" ref="E17:E18" si="3">D17*C17</f>
         <v>0.75</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="3"/>
+        <v>0.04</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1098,8 +1128,8 @@
         <v>106</v>
       </c>
       <c r="E19" s="2">
-        <f>SUM(E2:E17)</f>
-        <v>29.101000000000003</v>
+        <f>SUM(E2:E18)</f>
+        <v>29.141000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1115,9 +1145,10 @@
     <hyperlink ref="F9" r:id="rId9"/>
     <hyperlink ref="F16" r:id="rId10"/>
     <hyperlink ref="F17" r:id="rId11"/>
+    <hyperlink ref="F18" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId12"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/BOM/Teileliste.xlsx
+++ b/BOM/Teileliste.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
   <si>
     <t>Part</t>
   </si>
@@ -394,6 +394,17 @@
   </si>
   <si>
     <t>Diode 1N4001</t>
+  </si>
+  <si>
+    <t>Lüfter</t>
+  </si>
+  <si>
+    <t>Radial Lüfter AVC 
+BA10033B12HP077-F22 
+95x97x33mm</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/Radial-Lufter-AVC-BA10033B12HP077-F22-95x97x33mm-Lufter-Fan-12-V-3600-U-min/183452984131?hash=item2ab6a66343:g:pPcAAOSwagNZbkGH#shpCntId</t>
   </si>
 </sst>
 </file>
@@ -447,11 +458,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -733,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1130,6 +1144,29 @@
       <c r="E19" s="2">
         <f>SUM(E2:E18)</f>
         <v>29.141000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E22">
+        <f>D22*C22</f>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1146,9 +1183,10 @@
     <hyperlink ref="F16" r:id="rId10"/>
     <hyperlink ref="F17" r:id="rId11"/>
     <hyperlink ref="F18" r:id="rId12"/>
+    <hyperlink ref="F22" r:id="rId13" location="shpCntId"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId13"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId14"/>
 </worksheet>
 </file>
 

--- a/BOM/Teileliste.xlsx
+++ b/BOM/Teileliste.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\arduino\Github\Grilloino2000\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\homer\Puplic\arduino\Github\Grilloino2000\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="128">
   <si>
     <t>Part</t>
   </si>
@@ -405,6 +405,12 @@
   </si>
   <si>
     <t>https://www.ebay.de/itm/Radial-Lufter-AVC-BA10033B12HP077-F22-95x97x33mm-Lufter-Fan-12-V-3600-U-min/183452984131?hash=item2ab6a66343:g:pPcAAOSwagNZbkGH#shpCntId</t>
+  </si>
+  <si>
+    <t>Mini Servo</t>
+  </si>
+  <si>
+    <t>https://www.ebay.de/itm/1-2-4-10pcs-9G-SG90-Mini-Gear-Micro-Servo-Motor-Robot-Helicopter-Fernbedienung/123106210417?hash=item1ca9b3b271:m:mjW2eL8fxkkZCWooEVXGZbQ</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="F3" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1167,6 +1173,23 @@
       </c>
       <c r="F22" s="3" t="s">
         <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3.99</v>
+      </c>
+      <c r="E23">
+        <v>3.99</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -1184,9 +1207,10 @@
     <hyperlink ref="F17" r:id="rId11"/>
     <hyperlink ref="F18" r:id="rId12"/>
     <hyperlink ref="F22" r:id="rId13" location="shpCntId"/>
+    <hyperlink ref="F23" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId14"/>
+  <pageSetup paperSize="261" orientation="landscape" horizontalDpi="180" verticalDpi="180" r:id="rId15"/>
 </worksheet>
 </file>
 
